--- a/loaded_influencer_data/maurinorebecca/maurinorebecca_video.xlsx
+++ b/loaded_influencer_data/maurinorebecca/maurinorebecca_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,2452 +506,2503 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7489455183622130966</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>204400</v>
+      </c>
+      <c r="C2" t="n">
+        <v>27200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5157</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1425</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>@Gisou fatemi sapere chi la vuole 🥳🥳 #perteee</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>15.83023483365949</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13.30724070450098</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.522994129158513</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6971624266144814</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7489440497270803734</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71200</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D3" t="n">
+        <v>389</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>393</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ciao è uscito il sole e sono felice #perte</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>18.10252808988764</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.5561797752809</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5463483146067416</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5519662921348314</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7489425404072168726</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>38000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6268</v>
+      </c>
+      <c r="D4" t="n">
+        <v>272</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>424</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>@Gisou ahhh😭 #perteee #neiperte #foryoupagee #fyp</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>17.21052631578947</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16.49473684210526</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7157894736842105</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.11578947368421</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7489087737811782934</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>153100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>292</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>641</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>#foryoupagee #perteee</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>13.3847158719791</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13.1939908556499</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1907250163291966</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.418680600914435</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7489068812898176258</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>52800</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8816</v>
+      </c>
+      <c r="D6" t="n">
+        <v>208</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>399</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>:D #neiperte</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>17.09090909090909</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16.6969696969697</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.393939393939394</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7556818181818182</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7489055643899301142</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>145700</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21900</v>
+      </c>
+      <c r="D7" t="n">
+        <v>193</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3333</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>tante informazioni in poco tempo :/ , su youtube saranno meglio🥳 #fyp #neiperte</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>15.16334934797529</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15.0308853809197</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1324639670555937</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.287577213452299</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7488714295090466070</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>95300</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14300</v>
+      </c>
+      <c r="D8" t="n">
+        <v>499</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>819</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>grwm</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>15.52885624344176</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15.00524658971668</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5236096537250787</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8593913955928647</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7488698846655155478</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>312000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35600</v>
+      </c>
+      <c r="D9" t="n">
+        <v>229</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1452</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>i tried, post allenamento direi top😵 #foryouuu</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>11.48365384615385</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.41025641025641</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0733974358974359</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4653846153846154</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@maurinorebecca/video/7488682652397047062</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>92100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13800</v>
+      </c>
+      <c r="D10" t="n">
+        <v>229</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1533</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>so in love!! #foryouuu #neiperte
+@NARS Cosmetics @Too Faced @Saie @Charlotte Tilbury</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>15.23235613463627</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.98371335504886</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.248642779587405</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.664495114006515</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486864342902770966</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>86300</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>15500</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D11" t="n">
         <v>241</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1543</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>입어보세요!! 할인코드 : 의 웹사이트에서 RMAURINO10@Edikted #foryouu #edikted #ediktedad</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>18.23986095017381</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>17.96060254924681</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.2792584009269988</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L11" t="n">
         <v>1.787949015063731</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486846761131199766</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>191400</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>28700</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>204</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3896</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>할인 코드: 웹사이트의 RMAURINO10@Edikted #edikted #ediktedad #foryouu</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>15.10135841170324</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>14.99477533960293</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.1065830721003135</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L12" t="n">
         <v>2.035527690700105</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486502412581096726</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>54200</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>7639</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>227</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>357</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>곡선</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>14.51291512915129</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>14.09409594095941</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.4188191881918819</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L13" t="n">
         <v>0.6586715867158671</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486489485924945174</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>932800</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>171800</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>832</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>8386</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>😬 #fyppp #perteee</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>18.50686106346484</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>18.41766723842196</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.08919382504288165</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>0.8990137221269296</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486470591894097174</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>179200</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>31300</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D15" t="n">
         <v>274</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1049</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>나는 이 비디오를 너무 좋아하기 시작했다🥹🥹면책 조항: 나는 매일 이런 일을 하지 않는다#perteee</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>17.61941964285714</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>17.46651785714286</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1529017857142857</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>0.5853794642857143</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486129304397450518</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>113200</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>17000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D16" t="n">
         <v>270</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>658</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>곡선 (bozza!!)</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>15.25618374558304</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>15.01766784452297</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.2385159010600707</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L16" t="n">
         <v>0.5812720848056537</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486114025927937302</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>130600</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>29000</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>215</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>898</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>my inner child is healing 🥹 #viralll #neiperte #viralll #neiperte</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>22.3698315467075</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>22.2052067381317</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.164624808575804</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L17" t="n">
         <v>0.6875957120980092</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7486097089760431382</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>40300</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>6459</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D18" t="n">
         <v>147</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>252</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>@hotelfanes 🧖🏼‍♀️🍯🤍 (il coffee era per mamma) #foryouu @horeca creator @hotelfanes #foryouu @horeca creator</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>16.39205955334987</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>16.0272952853598</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3647642679900744</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L18" t="n">
         <v>0.6253101736972705</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485762860426005782</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>115700</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>6459</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>147</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>252</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>🧖🏼‍♀️🍯🤍 (커피는 엄마를 위한 것이었다)@hotelfanes #foryouu @horeca creator</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>5.709593777009507</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>5.582541054451167</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.1270527225583405</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>0.2178046672428695</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485735289042816278</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>153300</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>15100</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" t="n">
         <v>180</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>414</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>이것들을 사랑 🤍✨#viralll</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H20" t="n">
         <v>9.967384213959557</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>9.84996738421396</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.1174168297455969</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L20" t="n">
         <v>0.2700587084148728</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485719406572604694</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>89600</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>37600</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D21" t="n">
         <v>297</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>974</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>나는 이 몸에 매우 자신감을 느낀다#fyppp</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>42.29575892857143</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>41.96428571428572</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3314732142857142</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L21" t="n">
         <v>1.087053571428571</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485404109223349526</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>98100</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>11100</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>207</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>562</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>사랑해 🤍🤍@hotelfanes @horeca creator #foryouu #perteee #neiperte</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>11.52599388379205</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>11.31498470948012</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2110091743119266</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>0.5728848114169215</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485373913308974358</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>108400</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>11600</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>252</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>1760</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>🪄🪄 #foryouu @Coco &amp; Eve US @Charlotte Tilbury @TYPEBEA @Yepoda @Kérastase @PUPA Milano</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>10.93357933579336</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>10.70110701107011</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.2324723247232472</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>1.623616236162361</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485355537866001686</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>57400</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>17300</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>244</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>613</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>안녕#fyppp</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>30.56445993031359</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>30.13937282229965</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.4250871080139373</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>1.06794425087108</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485017689266736406</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>98200</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>6520</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D25" t="n">
         <v>200</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>366</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>뭐? ?? 우주 2.0이 전부입니다! !!@Kylie Jenner #fyppp #foryouu #neiperte @Douglas Italia</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>6.843177189409369</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>6.639511201629328</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.2036659877800407</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L25" t="n">
         <v>0.3727087576374745</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7485002535577603350</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>276800</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>10200</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>256</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>985</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>새로운 리본 마스카라로 여분의 속눈썹 길이🎀😍광고@Too Faced #toofaced</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>3.777456647398844</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>3.684971098265896</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.09248554913294797</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>0.3558526011560694</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484987321771658518</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>266000</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>25700</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>232</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>3561</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>오늘의 운동😵#viralll #fyp</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>9.748872180451128</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>9.661654135338345</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.08721804511278196</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>1.338721804511278</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484647298950073622</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>144300</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>41800</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>281</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>1845</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>@Huda Beauty …. #foryouu #fyp</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>29.16216216216216</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>28.96742896742897</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.1947331947331947</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L28" t="n">
         <v>1.278586278586279</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484632394159377686</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>196600</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>11800</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>238</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>1262</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>제발😭#foryouu #perte</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>6.123092573753815</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>6.002034587995931</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.121057985757884</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>0.6419125127161749</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484615906539212054</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>63300</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>22800</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>252</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>810</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>😋 #neiperte #foryouu</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>36.41706161137441</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>36.01895734597156</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.3981042654028436</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>1.279620853080569</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484283132758199574</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>182000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>8127</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>305</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>688</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>너무 잘 나왔어🥹 #perte #foryouu @Charlotte Tilbury @Saie @Tower 28 Beauty @rhode skin @Diorbeauty @Kosas</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>4.632967032967032</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>4.465384615384616</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.1675824175824176</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L31" t="n">
         <v>0.378021978021978</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484262805311409430</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>94700</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>19300</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>279</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>338</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>내#foryouu #perte</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>20.67476240760296</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>20.38014783526927</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.2946145723336853</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>0.3569165786694826</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7484248235641507094</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>183500</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>12300</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>265</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>627</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>@Huda Beauty @Kylie Cosmetics @Lancôme @ELEMIS @Sephora Italia @Benefit Cosmetics Italy #foryouu</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>6.847411444141689</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>6.702997275204361</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.1444141689373297</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>0.3416893732970027</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483904959344282902</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>228500</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>25400</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>255</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>914</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>@lolanails.milano #foryouu</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>11.22757111597374</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>11.11597374179431</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.1115973741794311</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>0.4</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483889703477841174</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>68200</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>29800</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>360</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>690</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>정사각형 또는 아몬드?@lolanails.milano #fyp</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>44.22287390029325</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>43.6950146627566</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.5278592375366569</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L35" t="n">
         <v>1.011730205278592</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483873259507862806</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>357500</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>7122</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>226</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>472</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>최고의 바디 크림 중 하나 브라질 범범 크림 ☀️@Sol de Janeiro #ad</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>2.055384615384615</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>1.992167832167832</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.06321678321678321</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L36" t="n">
         <v>0.132027972027972</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483517846375370006</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>343100</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>46700</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>341</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>2557</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>#perteee</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>13.7105800058292</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>13.61119207228213</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.09938793354707083</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>0.745263771495191</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483503138176077078</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>85000</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>46000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>273</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>1004</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>증오#foryouu #fyp</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>54.43882352941176</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>54.11764705882353</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.3211764705882353</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L38" t="n">
         <v>1.181176470588235</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483162162857299222</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>76400</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>11600</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>258</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>475</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>곡선</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>15.52094240837696</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>15.18324607329843</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.337696335078534</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>0.6217277486910995</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483146738929274134</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>139900</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>8637</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>244</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>359</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>항상#neiperte</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>6.348105789849892</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>6.173695496783417</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.174410293066476</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>0.2566118656182988</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7483133263859567894</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>95700</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>20000</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>319</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>681</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>풀핏 🤍🤍@CiderCloset #foryouu</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>21.23197492163009</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>20.89864158829676</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.3333333333333334</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>0.7115987460815048</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482790317192793366</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>402900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>12900</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>273</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>711</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>#neiperte #foryouu #fyp</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>3.269545793000744</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>3.201787043931496</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.06775874906924795</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482775068280425750</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>68700</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>46900</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>319</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>1795</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>#fyppp</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>68.73216885007278</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>68.26783114992722</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.4643377001455605</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>2.612809315866084</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482760921006361878</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>247700</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>46900</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>319</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1795</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>#fyppp</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>19.06297941057731</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>18.93419459023012</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.1287848203471942</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>0.7246669358094469</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482404674541260054</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>233500</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>8069</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>217</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>392</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>sh1t#perte</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>3.548608137044968</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>3.455674518201285</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.09293361884368308</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L45" t="n">
         <v>0.1678800856531049</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482388565725302038</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>228300</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>36000</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>263</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>4686</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>사용된 제품:#foryouu @Sephora Italia @Gisou @Erborian France</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H46" t="n">
         <v>15.88392466053438</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>15.76872536136662</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.1151992991677617</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>2.052562417871222</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482051071888641302</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>520200</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>30500</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>256</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>765</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>#perte</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>5.912341407151096</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>5.86312956555171</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.04921184159938486</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L47" t="n">
         <v>0.1470588235294118</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482033253612784918</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>421300</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>29800</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>290</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>1197</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>#perteee</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>7.142178969855211</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>7.073344410159031</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.06883455969617849</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>0.2841205791597436</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7482017256717765910</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>188600</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>42700</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>461</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>4654</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>새로운 글레이즈 열풍 틴티드 립 세럼으로 광고 도넛 같은 느낌 🍩@LANEIGE Europe @Sephora Italia #foryouu #adv</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>22.88494167550371</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>22.64050901378579</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.2444326617179216</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>2.467656415694591</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7481677939365465366</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>266300</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>59700</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>2796</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3424</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>매니페스토 🪄#fyp</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>23.46826886969583</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>22.41832519714607</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>1.049943672549756</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L50" t="n">
         <v>1.285767930904994</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@maurinorebecca/video/7481664058974915862</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>186900</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>14700</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>314</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>661</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>문신에 대해 어떻게 생각하세요? 나는 그것을 좋아한다@Diorbeauty #grwm</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>8.033172819689675</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>7.865168539325842</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1680042803638309</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>0.35366506153023</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7481647731681856790</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>357600</v>
-      </c>
-      <c r="C43" t="n">
-        <v>19300</v>
-      </c>
-      <c r="D43" t="n">
-        <v>279</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3301</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Replying to @📲 il mio colore di capelli in questo video non si capisce😂😂 #foryouu #fyp #neiperte @📲 #foryouu</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5.475111856823267</v>
-      </c>
-      <c r="I43" t="n">
-        <v>5.397091722595079</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.07802013422818792</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.9230984340044743</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7481306765808864514</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>211700</v>
-      </c>
-      <c r="C44" t="n">
-        <v>12700</v>
-      </c>
-      <c r="D44" t="n">
-        <v>260</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1127</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>lip liner: @Kylie Cosmetics 808 , lip balm: @Summer Fridays #foryouu #neiperte #fyp @Kylie Cosmetics</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6.121870571563534</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.999055266887105</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1228153046764289</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.5323571091166746</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7481291436315446550</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>228500</v>
-      </c>
-      <c r="C45" t="n">
-        <v>47300</v>
-      </c>
-      <c r="D45" t="n">
-        <v>370</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1461</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>이 미니 블로그가 마음에 드십니까?🤍#neiperte #foryouu</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>20.86214442013129</v>
-      </c>
-      <c r="I45" t="n">
-        <v>20.70021881838074</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.161925601750547</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.6393873085339169</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7481275340006935830</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>251200</v>
-      </c>
-      <c r="C46" t="n">
-        <v>17800</v>
-      </c>
-      <c r="D46" t="n">
-        <v>384</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>956</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>no vabbè 😭 @Star Model Toys #foryouu @Star Model Toys #foryouu</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>7.238853503184714</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7.085987261146497</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1528662420382166</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.3805732484076433</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7480937874393697558</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>150600</v>
-      </c>
-      <c r="C47" t="n">
-        <v>32299</v>
-      </c>
-      <c r="D47" t="n">
-        <v>297</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>938</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>항상#neiperte</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>21.64409030544489</v>
-      </c>
-      <c r="I47" t="n">
-        <v>21.4468791500664</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1972111553784861</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.6228419654714475</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7480920477318368534</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>12700000</v>
-      </c>
-      <c r="C48" t="n">
-        <v>30900</v>
-      </c>
-      <c r="D48" t="n">
-        <v>376</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>978</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>곡선</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>0.2462677165354331</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.2433070866141732</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.002960629921259842</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.007700787401574803</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7480904719540718871</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>406800</v>
-      </c>
-      <c r="C49" t="n">
-        <v>14400</v>
-      </c>
-      <c r="D49" t="n">
-        <v>306</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>964</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>@Erborian France @Sol de Janeiro #foryouuu #bodycare</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3.615044247787611</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.539823008849558</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.0752212389380531</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.2369714847590954</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@maurinorebecca/video/7480562913963494678</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>378100</v>
-      </c>
-      <c r="C50" t="n">
-        <v>31700</v>
-      </c>
-      <c r="D50" t="n">
-        <v>248</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3604</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>uuuu, Super Stay Tint by를 사용하여 흐릿한 립 콤보를 보세요. 바르기 쉽고 촉촉하고 오래 지속됩니다! !! 어플리케이터가 너무 얇아서 사용하기에도 완벽하다는 점이 마음에 듭니다! 음영: 스키니 딥 15개와 현재 분위기 10개</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8.449616503570484</v>
-      </c>
-      <c r="I50" t="n">
-        <v>8.384025390108436</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.06559111346204709</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.953186987569426</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
         </is>
       </c>
     </row>
